--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_23.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1310351.133562261</v>
+        <v>1328725.823028381</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.511665972</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>141.1615795578873</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>79.02272265851224</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>76.71587097450795</v>
+        <v>268.6413070582234</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>89.30418374625633</v>
+        <v>277.9437615581081</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>101.780687729549</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>129.0036366911899</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>208.3112740256943</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>355.5750222528097</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>37.82339983149492</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>177.9754166819398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273781</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,10 +1464,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262922</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014448</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4552226741776</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>101.1426547140123</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883384993</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1701,10 +1701,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262922</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014448</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431768</v>
+        <v>174.3062600431759</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497981</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>57.64843562452468</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>136.8736401074735</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2096,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113165</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>161.1706059301398</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002169</v>
       </c>
     </row>
     <row r="23">
@@ -2485,7 +2485,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>33.20430972951701</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>89.41543781797718</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2843,7 +2843,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,10 +2962,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>49.58144246360659</v>
+        <v>153.7693996663704</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3044,10 +3044,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>105.5303094322326</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>224.8952567231525</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>63.1779444490604</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,22 +3472,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>76.27978370493953</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>113.6635323293995</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274077</v>
@@ -3797,7 +3797,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>95.03056730070881</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>173.3098319902327</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3992,10 +3992,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>13.00407538591742</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -4183,13 +4183,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>285.9888589191</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1310.651480925462</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="C2" t="n">
-        <v>941.6889639850508</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="D2" t="n">
-        <v>941.6889639850508</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="E2" t="n">
-        <v>941.6889639850508</v>
+        <v>558.6732226496763</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>147.6873178600687</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>133.7639137986596</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>133.7639137986596</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>2070.717079250664</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>1697.251320989584</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y2" t="n">
-        <v>1697.251320989584</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="3">
@@ -4407,16 +4407,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>650.638205444305</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>650.638205444305</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>650.638205444305</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>422.6486545462877</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1717.15289212512</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2090.6186503862</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X5" t="n">
-        <v>1717.15289212512</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y5" t="n">
-        <v>1717.15289212512</v>
+        <v>2388.358616186807</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4650,13 +4650,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>625.3202087220412</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1568.149526959219</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.149526959219</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D8" t="n">
-        <v>1209.883828352469</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>824.0955757542242</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>413.1096709646167</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.288858935031</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="Y8" t="n">
-        <v>1568.149526959219</v>
+        <v>1075.055971578407</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.7922583306645</v>
+        <v>261.1482364572794</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>261.1482364572794</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>261.1482364572794</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1482364572794</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1482364572794</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>92.14843619561185</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>92.14843619561185</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>92.14843619561185</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4999,13 +4999,13 @@
         <v>550.5654064942401</v>
       </c>
       <c r="W10" t="n">
-        <v>550.5654064942401</v>
+        <v>261.1482364572794</v>
       </c>
       <c r="X10" t="n">
-        <v>550.5654064942401</v>
+        <v>261.1482364572794</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.7922583306645</v>
+        <v>261.1482364572794</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405193</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155859</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.193237080544</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822432</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5048,43 +5048,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256433</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.777852827703</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775518</v>
+        <v>534.5429807341668</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208.7516828383384</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="C13" t="n">
-        <v>208.7516828383384</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="W13" t="n">
-        <v>208.7516828383384</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="X13" t="n">
-        <v>208.7516828383384</v>
+        <v>1396.75197286698</v>
       </c>
       <c r="Y13" t="n">
-        <v>208.7516828383384</v>
+        <v>1175.95939372345</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643321</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899124</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5343,34 +5343,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256433</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.777852827703</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341668</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864553</v>
+        <v>1247.466478653859</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5431,52 +5431,52 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="Y16" t="n">
         <v>1322.84934122136</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690731</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409604</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748353</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742897</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769782</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805655</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>2334.498159098439</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>2375.989236263797</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>2786.879505108309</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>3336.69822265863</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864553</v>
+        <v>3644.018355938591</v>
       </c>
       <c r="N18" t="n">
-        <v>1538.857683528586</v>
+        <v>3973.880983602623</v>
       </c>
       <c r="O18" t="n">
-        <v>2208.321444831246</v>
+        <v>4253.42104882132</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557067</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098065</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021843</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.92892764123</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409487</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681286</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475753</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710799</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3686.322319899657</v>
+        <v>385.5899330013827</v>
       </c>
       <c r="C19" t="n">
-        <v>3517.38613697175</v>
+        <v>385.5899330013827</v>
       </c>
       <c r="D19" t="n">
-        <v>3459.155393916675</v>
+        <v>235.473293589047</v>
       </c>
       <c r="E19" t="n">
-        <v>3459.155393916675</v>
+        <v>235.473293589047</v>
       </c>
       <c r="F19" t="n">
-        <v>3459.155393916675</v>
+        <v>235.473293589047</v>
       </c>
       <c r="G19" t="n">
-        <v>3459.155393916675</v>
+        <v>235.473293589047</v>
       </c>
       <c r="H19" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625196</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4860.854573014291</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S19" t="n">
-        <v>4860.854573014291</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="T19" t="n">
-        <v>4860.854573014291</v>
+        <v>964.1357418247851</v>
       </c>
       <c r="U19" t="n">
-        <v>4860.854573014291</v>
+        <v>675.0071030383433</v>
       </c>
       <c r="V19" t="n">
-        <v>4606.170084808405</v>
+        <v>675.0071030383433</v>
       </c>
       <c r="W19" t="n">
-        <v>4316.752914771444</v>
+        <v>385.5899330013827</v>
       </c>
       <c r="X19" t="n">
-        <v>4088.763363873427</v>
+        <v>385.5899330013827</v>
       </c>
       <c r="Y19" t="n">
-        <v>3867.970784729897</v>
+        <v>385.5899330013827</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,40 +5762,40 @@
         <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2500.819361250802</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>2911.709630095315</v>
+        <v>549.5984374701559</v>
       </c>
       <c r="L21" t="n">
-        <v>3158.474758001779</v>
+        <v>1163.495507227044</v>
       </c>
       <c r="M21" t="n">
-        <v>3465.794891281741</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N21" t="n">
-        <v>3795.657518945773</v>
+        <v>1800.678268171038</v>
       </c>
       <c r="O21" t="n">
-        <v>4075.19758416447</v>
+        <v>2080.218333389735</v>
       </c>
       <c r="P21" t="n">
-        <v>4565.745155698577</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5938,22 +5938,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609657</v>
       </c>
       <c r="V22" t="n">
-        <v>1336.117678709276</v>
+        <v>731.3177283550789</v>
       </c>
       <c r="W22" t="n">
-        <v>1046.700508672316</v>
+        <v>441.9005583181183</v>
       </c>
       <c r="X22" t="n">
-        <v>818.7109577742983</v>
+        <v>213.9110074201009</v>
       </c>
       <c r="Y22" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5978,13 +5978,13 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
@@ -6066,22 +6066,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1141.200876391121</v>
+        <v>1027.850635690702</v>
       </c>
       <c r="C25" t="n">
-        <v>972.2646934632137</v>
+        <v>858.9144527627952</v>
       </c>
       <c r="D25" t="n">
-        <v>822.1480540508779</v>
+        <v>708.7978133504595</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>560.8847197680664</v>
       </c>
       <c r="F25" t="n">
         <v>527.3450129705744</v>
@@ -6184,13 +6184,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="W25" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X25" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y25" t="n">
-        <v>1322.84934122136</v>
+        <v>1209.499100520942</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6227,7 +6227,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4334.202995919603</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C28" t="n">
-        <v>4334.202995919603</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D28" t="n">
-        <v>4184.086356507268</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E28" t="n">
-        <v>4036.173262924875</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426964</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746785</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4770.53594895573</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4770.53594895573</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4770.53594895573</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>4770.53594895573</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>4515.851460749843</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>4515.851460749843</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X28" t="n">
-        <v>4515.851460749843</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y28" t="n">
-        <v>4515.851460749843</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,19 +6458,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6482,13 +6482,13 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,16 +6528,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256434</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4234.628113830027</v>
+        <v>4171.233660752715</v>
       </c>
       <c r="C31" t="n">
-        <v>4065.69193090212</v>
+        <v>4171.233660752715</v>
       </c>
       <c r="D31" t="n">
-        <v>3915.575291489785</v>
+        <v>4171.233660752715</v>
       </c>
       <c r="E31" t="n">
-        <v>3767.662197907392</v>
+        <v>4023.320567170322</v>
       </c>
       <c r="F31" t="n">
-        <v>3620.772250409481</v>
+        <v>3876.430619672411</v>
       </c>
       <c r="G31" t="n">
-        <v>3570.689985294727</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294727</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431055</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436452</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042135</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014291</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014291</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T31" t="n">
-        <v>4637.069157803797</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U31" t="n">
-        <v>4637.069157803797</v>
+        <v>4460.650830789676</v>
       </c>
       <c r="V31" t="n">
-        <v>4637.069157803797</v>
+        <v>4460.650830789676</v>
       </c>
       <c r="W31" t="n">
-        <v>4637.069157803797</v>
+        <v>4171.233660752715</v>
       </c>
       <c r="X31" t="n">
-        <v>4637.069157803797</v>
+        <v>4171.233660752715</v>
       </c>
       <c r="Y31" t="n">
-        <v>4416.276578660267</v>
+        <v>4171.233660752715</v>
       </c>
     </row>
     <row r="32">
@@ -6692,7 +6692,7 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6701,7 +6701,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916676</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916676</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916676</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916676</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916676</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>4633.68764703131</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V34" t="n">
-        <v>4379.003158825423</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W34" t="n">
-        <v>4089.585988788463</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X34" t="n">
-        <v>3861.596437890445</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y34" t="n">
-        <v>3640.803858746915</v>
+        <v>465.7659634441654</v>
       </c>
     </row>
     <row r="35">
@@ -6935,10 +6935,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4455.420692973559</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>4286.484510045652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>4136.367870633317</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3988.454777050923</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3841.564829553013</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3673.389507872834</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3522.971499420777</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>4637.069157803799</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>4637.069157803799</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4637.069157803799</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>4637.069157803799</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4637.069157803799</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>4637.069157803799</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,25 +7172,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7251,25 +7251,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.1954542207687</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C40" t="n">
-        <v>560.1954542207687</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="D40" t="n">
-        <v>560.1954542207687</v>
+        <v>174.2673780309318</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>174.2673780309318</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>174.2673780309318</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7354,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>560.1954542207687</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W40" t="n">
-        <v>560.1954542207687</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X40" t="n">
-        <v>560.1954542207687</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y40" t="n">
-        <v>560.1954542207687</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,7 +7409,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7494,19 +7494,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619858</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3459.155393916676</v>
+        <v>1089.278254829645</v>
       </c>
       <c r="C43" t="n">
-        <v>3459.155393916676</v>
+        <v>920.3420719017386</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916676</v>
+        <v>770.2254324894028</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916676</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916676</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916676</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>4326.074044281177</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>4151.013607927406</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>4151.013607927406</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>3861.596437890445</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X43" t="n">
-        <v>3861.596437890445</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y43" t="n">
-        <v>3640.803858746915</v>
+        <v>1270.926719659885</v>
       </c>
     </row>
     <row r="44">
@@ -7625,25 +7625,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823786</v>
@@ -7670,25 +7670,25 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J45" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>2911.709630095316</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>3158.47475800178</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>3465.794891281741</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N45" t="n">
-        <v>3795.657518945774</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>4075.197584164471</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>4555.115143601278</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4347.338425602348</v>
+        <v>4037.196409009357</v>
       </c>
       <c r="C46" t="n">
-        <v>4334.202995919603</v>
+        <v>4037.196409009357</v>
       </c>
       <c r="D46" t="n">
-        <v>4184.086356507268</v>
+        <v>4037.196409009357</v>
       </c>
       <c r="E46" t="n">
-        <v>4036.173262924875</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="F46" t="n">
-        <v>3889.283315426964</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G46" t="n">
-        <v>3721.107993746785</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294728</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576118</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="S46" t="n">
-        <v>4749.779469576118</v>
+        <v>4549.859459491669</v>
       </c>
       <c r="T46" t="n">
-        <v>4749.779469576118</v>
+        <v>4326.074044281175</v>
       </c>
       <c r="U46" t="n">
-        <v>4749.779469576118</v>
+        <v>4037.196409009357</v>
       </c>
       <c r="V46" t="n">
-        <v>4749.779469576118</v>
+        <v>4037.196409009357</v>
       </c>
       <c r="W46" t="n">
-        <v>4749.779469576118</v>
+        <v>4037.196409009357</v>
       </c>
       <c r="X46" t="n">
-        <v>4749.779469576118</v>
+        <v>4037.196409009357</v>
       </c>
       <c r="Y46" t="n">
-        <v>4528.986890432588</v>
+        <v>4037.196409009357</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8772,16 +8772,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165137</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445224</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298203</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,25 +9009,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.70036832296</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>199.7396287231156</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445224</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627448</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9243,10 +9243,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>306.1147370139969</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>124.3400780863232</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445223</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298395</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776745</v>
+        <v>253.7371603504753</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445223</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,25 +9714,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K41" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11142,22 +11142,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>360.5026862907258</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208058</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3.012701199622825e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>77.06777566241342</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>124.5670006750248</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2.586375558166765e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.278393308918</v>
+        <v>44.27839330891891</v>
       </c>
     </row>
     <row r="17">
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.899014361901209e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>90.96703739368768</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>12.04018826006259</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24178,13 +24178,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>90.9670373936882</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>103.0576765518779</v>
       </c>
     </row>
     <row r="23">
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>112.2167382934142</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.54891458581562</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24658,7 +24658,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>116.912125999771</v>
+        <v>12.7241687970072</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>60.96325903114499</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25123,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>61.34209567542487</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>47.2413010152116</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,22 +25360,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25546,22 +25546,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>90.21378475843805</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>138.4741109944285</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>51.40339534586036</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>112.9275204083446</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26020,19 +26020,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>154.2427457127104</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26071,13 +26071,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0.2484934794773039</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453424</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453424</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>947434.0422453427</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453427</v>
       </c>
     </row>
     <row r="15">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.418698365</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.418698365</v>
       </c>
       <c r="G2" t="n">
         <v>449683.418698365</v>
@@ -26332,10 +26332,10 @@
         <v>449683.4186983652</v>
       </c>
       <c r="I2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="J2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="K2" t="n">
         <v>449683.4186983651</v>
@@ -26344,16 +26344,16 @@
         <v>449683.4186983652</v>
       </c>
       <c r="M2" t="n">
+        <v>449683.4186983651</v>
+      </c>
+      <c r="N2" t="n">
         <v>449683.4186983652</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>449683.4186983651</v>
       </c>
-      <c r="O2" t="n">
-        <v>449683.4186983652</v>
-      </c>
       <c r="P2" t="n">
-        <v>449683.4186983654</v>
+        <v>449683.4186983651</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,10 +26381,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230235</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871659</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871659</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871659</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26494,7 +26494,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
@@ -26509,7 +26509,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-377747.0380912593</v>
+        <v>-375218.7169278172</v>
       </c>
       <c r="C6" t="n">
-        <v>212220.8411232851</v>
+        <v>214749.1622867273</v>
       </c>
       <c r="D6" t="n">
-        <v>212220.841123285</v>
+        <v>214749.1622867273</v>
       </c>
       <c r="E6" t="n">
-        <v>-198802.3085175468</v>
+        <v>-196767.4892795496</v>
       </c>
       <c r="F6" t="n">
-        <v>326357.7279593493</v>
+        <v>328392.5471973461</v>
       </c>
       <c r="G6" t="n">
-        <v>326357.7279593492</v>
+        <v>328392.5471973461</v>
       </c>
       <c r="H6" t="n">
-        <v>326357.7279593494</v>
+        <v>328392.5471973462</v>
       </c>
       <c r="I6" t="n">
-        <v>326357.7279593495</v>
+        <v>328392.5471973461</v>
       </c>
       <c r="J6" t="n">
-        <v>149934.5087667563</v>
+        <v>151969.3280047533</v>
       </c>
       <c r="K6" t="n">
-        <v>326357.7279593493</v>
+        <v>328392.5471973462</v>
       </c>
       <c r="L6" t="n">
-        <v>326357.7279593493</v>
+        <v>328392.5471973462</v>
       </c>
       <c r="M6" t="n">
-        <v>191556.7127255122</v>
+        <v>193591.5319635091</v>
       </c>
       <c r="N6" t="n">
-        <v>326357.7279593493</v>
+        <v>328392.5471973462</v>
       </c>
       <c r="O6" t="n">
-        <v>326357.7279593494</v>
+        <v>328392.5471973462</v>
       </c>
       <c r="P6" t="n">
-        <v>326357.7279593496</v>
+        <v>328392.5471973462</v>
       </c>
     </row>
   </sheetData>
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540997</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540997</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540999</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540999</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370132</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>265.7144661838241</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>72.90859358634901</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,19 +27591,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>209.5660032674698</v>
+        <v>17.64056718375429</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>275.9687080247512</v>
+        <v>87.32913021289943</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>123.9289676594881</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>89.58101666090485</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>174.4225676377863</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>58.20914776798531</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27904,19 +27904,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>7.376559357042083</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>40.60923667015498</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961202</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041485</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304437</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565515</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540882</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946989</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446476</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104644</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354101</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.4953007812706</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358982</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724843</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855523</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361485</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081163</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990344</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.652223606563</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337665</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336899</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892241</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351809</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961202</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041485</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304437</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565515</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540882</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946989</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446476</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104644</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354101</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.4953007812706</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358982</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724843</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855523</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361485</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081163</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990344</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.652223606563</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337665</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336899</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892241</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351809</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041486</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565516</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.040313094699</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104645</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,46 +32306,46 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127061</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361486</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,43 +32388,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892242</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135181</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041486</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565516</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.040313094699</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104645</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,46 +32543,46 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127061</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361486</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,43 +32625,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892242</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135181</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415077</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303327</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109069</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221112</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951468</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349796</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490657</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958066</v>
+        <v>249.257704956024</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004659</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145263</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411079</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507396</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P13" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187468</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415077</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303327</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109069</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221112</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951468</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349796</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490657</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.257704956024</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.124745373426</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415661</v>
       </c>
       <c r="O15" t="n">
-        <v>482.1033309642237</v>
+        <v>282.3637022411079</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507396</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P16" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187468</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221114</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951466</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349799</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.9101789549066</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>555.372441970021</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.424377050466</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980126</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411079</v>
       </c>
       <c r="P18" t="n">
-        <v>331.4334930178478</v>
+        <v>525.5561835714616</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507399</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P19" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187469</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221114</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.9101789549066</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594832</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.424377050466</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980126</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411079</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091992</v>
+        <v>460.8305752819998</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507399</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P22" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187469</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>510.0474576375759</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37862,22 +37862,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>609.76039124675</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523304</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1328725.823028381</v>
+        <v>1404255.492693187</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665972</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>36.25939569967858</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>79.02272265851224</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.3397726353231</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,22 +861,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>268.6413070582234</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>277.9437615581081</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>15.1448323868146</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1063,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>65.51651982872629</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>129.0036366911899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>208.3112740256943</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>50.90559105012638</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1306,13 +1308,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>37.82339983149492</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>17.13267830033007</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505273781</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1464,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262922</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014448</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>101.1426547140123</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274083</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883384993</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1701,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262922</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014448</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1819,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431759</v>
+        <v>138.6841640381748</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952497981</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>136.8736401074735</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>122.7405009114236</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2096,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113165</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>117.0343205662376</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,7 +2295,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>115.5269768002169</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>33.20430972951701</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>66.14085215535377</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>153.7693996663704</v>
+        <v>122.2151751544601</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>105.5303094322326</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002169</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>57.64843562452401</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3518,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>76.27978370493953</v>
+        <v>155.8385935972313</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3718,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3797,7 +3799,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3904,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>95.03056730070881</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3958,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>155.8385935972304</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3994,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
         <v>81.77913505274077</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>157.2425576766696</v>
       </c>
       <c r="U46" t="n">
-        <v>285.9888589191</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>944.4614752479206</v>
+        <v>1646.746562480845</v>
       </c>
       <c r="C2" t="n">
-        <v>944.4614752479206</v>
+        <v>1277.784045540433</v>
       </c>
       <c r="D2" t="n">
-        <v>944.4614752479206</v>
+        <v>919.5183469336828</v>
       </c>
       <c r="E2" t="n">
-        <v>558.6732226496763</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>147.6873178600687</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>133.7639137986596</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>133.7639137986596</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4358,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312042</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y2" t="n">
-        <v>1331.061315312042</v>
+        <v>2033.346402544967</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,13 +4421,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>178.5286107449332</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2388.358616186807</v>
+        <v>863.1126181035247</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>494.150101163113</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.358616186807</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>2388.358616186807</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>2388.358616186807</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864.6405432696254</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>1800.761432218459</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4834,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
         <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>1838.661061815299</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X8" t="n">
-        <v>1465.195303554219</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y8" t="n">
-        <v>1075.055971578407</v>
+        <v>2169.72394915887</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>261.1482364572794</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="C10" t="n">
-        <v>261.1482364572794</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="D10" t="n">
-        <v>261.1482364572794</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1482364572794</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="F10" t="n">
-        <v>261.1482364572794</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G10" t="n">
-        <v>92.14843619561185</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>92.14843619561185</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>92.14843619561185</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>710.8232485495353</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942401</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942401</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="W10" t="n">
-        <v>261.1482364572794</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="X10" t="n">
-        <v>261.1482364572794</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="Y10" t="n">
-        <v>261.1482364572794</v>
+        <v>562.6765899837193</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.3213845506</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610188</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003438</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405193</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155859</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080544</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822432</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465298</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121728</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851613</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590533</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614722</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256433</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.777852827703</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341668</v>
+        <v>563.7235867775526</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126628</v>
+        <v>1332.091733170014</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136706</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>994.3109288932102</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>825.3747459653033</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
         <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557901</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557901</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557901</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X13" t="n">
-        <v>1396.75197286698</v>
+        <v>437.6964226305956</v>
       </c>
       <c r="Y13" t="n">
-        <v>1175.95939372345</v>
+        <v>216.9038434870655</v>
       </c>
     </row>
     <row r="14">
@@ -5270,40 +5272,40 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643321</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899124</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256433</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>287.777852827703</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341668</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653859</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>525.6009593486384</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
         <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557901</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557901</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557901</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557901</v>
+        <v>665.685973528613</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>525.6009593486384</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,67 +5500,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690731</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409604</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748353</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742897</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769782</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805655</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098439</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263797</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2786.879505108309</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>3336.69822265863</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3644.018355938591</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>3973.880983602623</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4253.42104882132</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557067</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098065</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021843</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.92892764123</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409487</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681286</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475753</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710799</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>385.5899330013827</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="C19" t="n">
-        <v>385.5899330013827</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D19" t="n">
-        <v>235.473293589047</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E19" t="n">
-        <v>235.473293589047</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F19" t="n">
-        <v>235.473293589047</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>235.473293589047</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035279</v>
+        <v>1374.935966606969</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247851</v>
+        <v>1374.935966606969</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383433</v>
+        <v>1374.935966606969</v>
       </c>
       <c r="V19" t="n">
-        <v>675.0071030383433</v>
+        <v>1120.251478401083</v>
       </c>
       <c r="W19" t="n">
-        <v>385.5899330013827</v>
+        <v>1120.251478401083</v>
       </c>
       <c r="X19" t="n">
-        <v>385.5899330013827</v>
+        <v>892.2619275030652</v>
       </c>
       <c r="Y19" t="n">
-        <v>385.5899330013827</v>
+        <v>892.2619275030652</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5753,49 +5755,49 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701559</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1163.495507227044</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1800.678268171038</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2080.218333389735</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>3872.174920417421</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>3872.174920417421</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>3872.174920417421</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>3724.261826835028</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>3577.371879337118</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974666</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609657</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550789</v>
+        <v>4382.384669597912</v>
       </c>
       <c r="W22" t="n">
-        <v>441.9005583181183</v>
+        <v>4092.967499560951</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9110074201009</v>
+        <v>4092.967499560951</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>3872.174920417421</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6020,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6066,28 +6068,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M24" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1027.850635690702</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>858.9144527627952</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>708.7978133504595</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>560.8847197680664</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6148,19 +6150,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6172,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.499100520942</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>1209.499100520942</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6218,7 +6220,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6227,7 +6229,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1141.200876391121</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C28" t="n">
-        <v>972.2646934632137</v>
+        <v>927.5390436562257</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>777.4224042438899</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>629.5093106614968</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>482.6193631635864</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>314.444041483407</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>164.0260330313503</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6385,19 +6387,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6427,7 +6429,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="Y28" t="n">
-        <v>1322.84934122136</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,37 +6451,37 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6494,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262063</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4171.233660752715</v>
+        <v>4458.413529040523</v>
       </c>
       <c r="C31" t="n">
-        <v>4171.233660752715</v>
+        <v>4289.477346112616</v>
       </c>
       <c r="D31" t="n">
-        <v>4171.233660752715</v>
+        <v>4139.36070670028</v>
       </c>
       <c r="E31" t="n">
-        <v>4023.320567170322</v>
+        <v>3991.447613117887</v>
       </c>
       <c r="F31" t="n">
-        <v>3876.430619672411</v>
+        <v>3844.557665619977</v>
       </c>
       <c r="G31" t="n">
         <v>3721.107993746785</v>
@@ -6643,28 +6645,28 @@
         <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S31" t="n">
-        <v>4749.779469576118</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T31" t="n">
-        <v>4749.779469576118</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U31" t="n">
-        <v>4460.650830789676</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V31" t="n">
-        <v>4460.650830789676</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W31" t="n">
-        <v>4171.233660752715</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="X31" t="n">
-        <v>4171.233660752715</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="Y31" t="n">
-        <v>4171.233660752715</v>
+        <v>4640.061993870762</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6701,16 +6703,16 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6740,10 +6742,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>2471.066311049163</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>2881.956579893676</v>
       </c>
       <c r="L33" t="n">
-        <v>563.7235867775518</v>
+        <v>3128.721707800139</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>3436.041841080101</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>3765.904468744134</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>4045.444533962831</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>465.7659634441654</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C34" t="n">
-        <v>465.7659634441654</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D34" t="n">
-        <v>465.7659634441654</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E34" t="n">
-        <v>465.7659634441654</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F34" t="n">
-        <v>465.7659634441654</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>4744.160657054477</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>4520.375241843983</v>
       </c>
       <c r="U34" t="n">
-        <v>1009.867621687013</v>
+        <v>4231.246603057541</v>
       </c>
       <c r="V34" t="n">
-        <v>755.183133481126</v>
+        <v>3976.562114851654</v>
       </c>
       <c r="W34" t="n">
-        <v>465.7659634441654</v>
+        <v>3687.144944814693</v>
       </c>
       <c r="X34" t="n">
-        <v>465.7659634441654</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="Y34" t="n">
-        <v>465.7659634441654</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,40 +6928,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7120,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1440.685527502828</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>1186.001039296941</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>896.58386925998</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="38">
@@ -7166,22 +7168,22 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7190,7 +7192,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7251,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>324.3840174432676</v>
+        <v>4230.423978142506</v>
       </c>
       <c r="C40" t="n">
-        <v>324.3840174432676</v>
+        <v>4061.487795214599</v>
       </c>
       <c r="D40" t="n">
-        <v>174.2673780309318</v>
+        <v>3911.371155802263</v>
       </c>
       <c r="E40" t="n">
-        <v>174.2673780309318</v>
+        <v>3763.45806221987</v>
       </c>
       <c r="F40" t="n">
-        <v>174.2673780309318</v>
+        <v>3616.56811472196</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352015</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W40" t="n">
-        <v>954.8146123150548</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="X40" t="n">
-        <v>726.8250614170374</v>
+        <v>4632.865022116275</v>
       </c>
       <c r="Y40" t="n">
-        <v>506.0324822735073</v>
+        <v>4412.072442972745</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,34 +7396,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1089.278254829645</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C43" t="n">
-        <v>920.3420719017386</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D43" t="n">
-        <v>770.2254324894028</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7606,13 +7608,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X43" t="n">
-        <v>1270.926719659885</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y43" t="n">
-        <v>1270.926719659885</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7627,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514082</v>
@@ -7664,31 +7666,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,37 +7715,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4037.196409009357</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C46" t="n">
-        <v>4037.196409009357</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D46" t="n">
-        <v>4037.196409009357</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E46" t="n">
-        <v>3889.283315426963</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F46" t="n">
-        <v>3889.283315426963</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G46" t="n">
-        <v>3721.107993746784</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294727</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431055</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436452</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042135</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576117</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S46" t="n">
-        <v>4549.859459491669</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T46" t="n">
-        <v>4326.074044281175</v>
+        <v>4702.023706674222</v>
       </c>
       <c r="U46" t="n">
-        <v>4037.196409009357</v>
+        <v>4412.89506788778</v>
       </c>
       <c r="V46" t="n">
-        <v>4037.196409009357</v>
+        <v>4158.210579681893</v>
       </c>
       <c r="W46" t="n">
-        <v>4037.196409009357</v>
+        <v>3868.793409644933</v>
       </c>
       <c r="X46" t="n">
-        <v>4037.196409009357</v>
+        <v>3640.803858746915</v>
       </c>
       <c r="Y46" t="n">
-        <v>4037.196409009357</v>
+        <v>3640.803858746915</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978322</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165137</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445224</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.70036832296</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445224</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>306.1147370139969</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445223</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298395</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>253.7371603504753</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445223</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928334</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>199.6230805871097</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928334</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504513</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>180.0237016735881</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>96.03744927814591</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10899,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I11" t="n">
-        <v>3.012701199622825e-12</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>61.3420956754254</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,16 +23472,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>124.5670006750248</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="T14" t="n">
-        <v>2.586375558166765e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23707,19 +23709,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.27839330891891</v>
+        <v>79.90048931391999</v>
       </c>
     </row>
     <row r="17">
@@ -23786,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.899014361901209e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>12.04018826006259</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>75.18030907217967</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23984,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24133,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>49.45924789713997</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>103.0576765518779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>112.2167382934142</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>44.27839330891823</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>12.7241687970072</v>
+        <v>44.27839330891744</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -24892,19 +24894,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>60.96325903114499</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338635</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25360,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>228.5889167740533</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>90.21378475843805</v>
+        <v>10.65497486614629</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25606,10 +25608,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>51.40339534586036</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>130.6844047393606</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25880,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>64.30500338171964</v>
       </c>
       <c r="U46" t="n">
-        <v>0.2484934794773039</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>947434.0422453424</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>947434.0422453424</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453427</v>
       </c>
     </row>
     <row r="9">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>947434.0422453427</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
         <v>472099.0176719629</v>
@@ -26323,10 +26325,10 @@
         <v>449683.418698365</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="G2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="H2" t="n">
         <v>449683.4186983652</v>
@@ -26344,16 +26346,16 @@
         <v>449683.4186983652</v>
       </c>
       <c r="M2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="N2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="O2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="P2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983653</v>
       </c>
     </row>
     <row r="3">
@@ -26372,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.567329602243263e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218262</v>
@@ -26427,28 +26429,28 @@
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230235</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230233</v>
@@ -26470,19 +26472,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26500,7 +26502,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26509,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26522,25 +26524,25 @@
         <v>-375218.7169278172</v>
       </c>
       <c r="C6" t="n">
-        <v>214749.1622867273</v>
+        <v>214749.1622867272</v>
       </c>
       <c r="D6" t="n">
         <v>214749.1622867273</v>
       </c>
       <c r="E6" t="n">
-        <v>-196767.4892795496</v>
+        <v>-196767.4892795499</v>
       </c>
       <c r="F6" t="n">
-        <v>328392.5471973461</v>
+        <v>328392.5471973462</v>
       </c>
       <c r="G6" t="n">
-        <v>328392.5471973461</v>
+        <v>328392.5471973462</v>
       </c>
       <c r="H6" t="n">
+        <v>328392.5471973463</v>
+      </c>
+      <c r="I6" t="n">
         <v>328392.5471973462</v>
-      </c>
-      <c r="I6" t="n">
-        <v>328392.5471973461</v>
       </c>
       <c r="J6" t="n">
         <v>151969.3280047533</v>
@@ -26552,16 +26554,16 @@
         <v>328392.5471973462</v>
       </c>
       <c r="M6" t="n">
-        <v>193591.5319635091</v>
+        <v>193591.5319635092</v>
       </c>
       <c r="N6" t="n">
-        <v>328392.5471973462</v>
+        <v>328392.5471973463</v>
       </c>
       <c r="O6" t="n">
-        <v>328392.5471973462</v>
+        <v>328392.5471973464</v>
       </c>
       <c r="P6" t="n">
-        <v>328392.5471973462</v>
+        <v>328392.5471973463</v>
       </c>
     </row>
   </sheetData>
@@ -26744,25 +26746,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054540997</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054540997</v>
+        <v>830.3824054541</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054540999</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054540999</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370132</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,7 +27029,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27379,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>345.6709743725832</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>72.90859358634901</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27552,10 +27554,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>11.62584915701513</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27579,22 +27581,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>17.64056718375429</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>87.32913021289943</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>339.5382092338684</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,10 +27785,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>81.14867215143154</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>89.58101666090485</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.4225676377863</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>303.7774505705566</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28026,13 +28028,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.376559357042083</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>11.99007165458424</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961202</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041485</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304437</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565515</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540882</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946989</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446476</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104644</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354101</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.4953007812706</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358982</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724843</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855523</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361485</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081163</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990344</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298627</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263749</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.652223606563</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337665</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336899</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892241</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351809</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
         <v>34.18755300444943</v>
@@ -31996,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961202</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041485</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304437</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565515</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540882</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946989</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446476</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104644</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354101</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.4953007812706</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32081,22 +32083,22 @@
         <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358982</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724843</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813459</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855523</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095117</v>
@@ -32105,10 +32107,10 @@
         <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361485</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U15" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081163</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990344</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298627</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
         <v>173.9719203557933</v>
@@ -32166,10 +32168,10 @@
         <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263749</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.652223606563</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469072</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337665</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336899</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892241</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351809</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041486</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565516</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104645</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,46 +32308,46 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361486</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263749</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041486</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565516</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104645</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,46 +32545,46 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361486</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,43 +32627,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263749</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32707,40 +32709,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M23" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,10 +32782,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215733</v>
@@ -32792,7 +32794,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724845</v>
@@ -32801,10 +32803,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32816,7 +32818,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32880,7 +32882,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32892,10 +32894,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U25" t="n">
         <v>0.08167695791351813</v>
@@ -32944,40 +32946,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M26" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,10 +33019,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215733</v>
@@ -33029,7 +33031,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
@@ -33038,10 +33040,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33053,7 +33055,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33117,7 +33119,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33129,10 +33131,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U28" t="n">
         <v>0.08167695791351813</v>
@@ -33181,40 +33183,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,10 +33256,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215733</v>
@@ -33266,7 +33268,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724845</v>
@@ -33275,10 +33277,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33290,7 +33292,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33354,7 +33356,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33366,10 +33368,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
         <v>0.08167695791351813</v>
@@ -34787,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415077</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303327</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109069</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951468</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349796</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490657</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879391</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.257704956024</v>
+        <v>278.7330645958074</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004659</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145263</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411079</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315245</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507396</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556546</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299104</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187468</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415077</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303327</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109069</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221112</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951468</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349796</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490657</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L15" t="n">
-        <v>249.257704956024</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>720.124745373426</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415661</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411079</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315245</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507396</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556546</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299104</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187468</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221114</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349799</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.9101789549066</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>555.372441970021</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.424377050466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980126</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411079</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714616</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507399</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187469</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221114</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.9101789549066</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594832</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.424377050466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980126</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411079</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>460.8305752819998</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507399</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187469</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M24" t="n">
-        <v>510.0474576375759</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36522,7 +36524,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36759,7 +36761,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710908</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>268.0367344586621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299105</v>
@@ -36996,7 +36998,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
@@ -37008,7 +37010,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330526</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1404255.492693187</v>
+        <v>1397238.477801476</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>36.25939569967858</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.130758887765257</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.3397726353231</v>
+        <v>56.72699744179297</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>15.1448323868146</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>235.6395982067212</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>153.4054252103178</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>65.51651982872629</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>50.90559105012638</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>20.89282023171125</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1192,7 +1192,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1305,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>17.13267830033007</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710089</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.6841640381748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.876045741713</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065125</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>122.7405009114236</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>117.0343205662376</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>138.2226889286441</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>66.14085215535377</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>198.3698148006635</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>122.2151751544601</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002169</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>8.627084658457212</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>57.64843562452401</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>155.8385935972313</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>155.8385935972304</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>45.21952718910648</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>157.2425576766696</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1646.746562480845</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C2" t="n">
-        <v>1277.784045540433</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="D2" t="n">
-        <v>919.5183469336828</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>890.0954814671036</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>479.109576677496</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>61.14576857568289</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>61.14576857568289</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2423.485734520778</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>2033.346402544967</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>336.2769833124031</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="C4" t="n">
-        <v>336.2769833124031</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="D4" t="n">
-        <v>336.2769833124031</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="E4" t="n">
-        <v>336.2769833124031</v>
+        <v>111.242979236317</v>
       </c>
       <c r="F4" t="n">
-        <v>336.2769833124031</v>
+        <v>111.242979236317</v>
       </c>
       <c r="G4" t="n">
-        <v>336.2769833124031</v>
+        <v>111.242979236317</v>
       </c>
       <c r="H4" t="n">
-        <v>178.5286107449332</v>
+        <v>111.242979236317</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>336.2769833124031</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>336.2769833124031</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V4" t="n">
-        <v>336.2769833124031</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="W4" t="n">
-        <v>336.2769833124031</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="X4" t="n">
-        <v>336.2769833124031</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="Y4" t="n">
-        <v>336.2769833124031</v>
+        <v>259.1560728187101</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.1126181035247</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="C5" t="n">
-        <v>494.150101163113</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>2459.129294849817</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4661,10 +4661,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>412.3028537806169</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2169.72394915887</v>
+        <v>885.7444020895357</v>
       </c>
       <c r="C8" t="n">
-        <v>1800.761432218459</v>
+        <v>885.7444020895357</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>885.7444020895357</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>499.9561494912915</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>88.9702447016839</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>75.04684064027479</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W8" t="n">
-        <v>2169.72394915887</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="X8" t="n">
-        <v>2169.72394915887</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="Y8" t="n">
-        <v>2169.72394915887</v>
+        <v>1272.344242153657</v>
       </c>
     </row>
     <row r="9">
@@ -4880,13 +4880,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
         <v>713.8062203571349</v>
@@ -4901,7 +4901,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>710.8232485495353</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>562.6765899837193</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X10" t="n">
-        <v>562.6765899837193</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y10" t="n">
-        <v>562.6765899837193</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775526</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170014</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655735</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>665.685973528613</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>437.6964226305956</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.9038434870655</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5275,55 +5275,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636247</v>
+        <v>563.7235867775513</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>525.6009593486384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C16" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D16" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655735</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>665.685973528613</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>665.685973528613</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y16" t="n">
-        <v>525.6009593486384</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
@@ -5521,46 +5521,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395484</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C19" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1374.935966606969</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1374.935966606969</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>1374.935966606969</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>1120.251478401083</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W19" t="n">
-        <v>1120.251478401083</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X19" t="n">
-        <v>892.2619275030652</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="Y19" t="n">
-        <v>892.2619275030652</v>
+        <v>216.9038434870662</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>570.0299571250964</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315606</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1124.115218311522</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3872.174920417421</v>
+        <v>413.0432218861032</v>
       </c>
       <c r="C22" t="n">
-        <v>3872.174920417421</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="D22" t="n">
-        <v>3872.174920417421</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="E22" t="n">
-        <v>3724.261826835028</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F22" t="n">
-        <v>3577.371879337118</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1359.297392852202</v>
       </c>
       <c r="T22" t="n">
-        <v>4637.069157803799</v>
+        <v>1359.297392852202</v>
       </c>
       <c r="U22" t="n">
-        <v>4637.069157803799</v>
+        <v>1070.16875406576</v>
       </c>
       <c r="V22" t="n">
-        <v>4382.384669597912</v>
+        <v>815.4842658598731</v>
       </c>
       <c r="W22" t="n">
-        <v>4092.967499560951</v>
+        <v>815.4842658598731</v>
       </c>
       <c r="X22" t="n">
-        <v>4092.967499560951</v>
+        <v>815.4842658598731</v>
       </c>
       <c r="Y22" t="n">
-        <v>3872.174920417421</v>
+        <v>594.6916867163429</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6004,37 +6004,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="26">
@@ -6217,22 +6217,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6241,13 +6241,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1096.475226584133</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C28" t="n">
-        <v>927.5390436562257</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>777.4224042438899</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>629.5093106614968</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>482.6193631635864</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>314.444041483407</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>164.0260330313503</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6387,49 +6387,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1098.622710169755</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>809.4940713833126</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>554.8095831774258</v>
       </c>
       <c r="W28" t="n">
-        <v>1498.916270557902</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X28" t="n">
-        <v>1498.916270557902</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y28" t="n">
-        <v>1278.123691414372</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,25 +6457,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6542,13 +6542,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643586</v>
@@ -6560,7 +6560,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2358.217138262063</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4458.413529040523</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>4289.477346112616</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>4139.36070670028</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3991.447613117887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3844.557665619977</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014292</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U31" t="n">
-        <v>4860.854573014292</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>4860.854573014292</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>4860.854573014292</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>4860.854573014292</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>4640.061993870762</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,28 +6685,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6742,10 +6742,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2471.066311049163</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2881.956579893676</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>3128.721707800139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3436.041841080101</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>3765.904468744134</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4045.444533962831</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916676</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916676</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4744.160657054477</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4520.375241843983</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>4231.246603057541</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>3976.562114851654</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W34" t="n">
-        <v>3687.144944814693</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X34" t="n">
-        <v>3459.155393916676</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916676</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="35">
@@ -6928,40 +6928,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1440.685527502828</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>1186.001039296941</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>896.58386925998</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>668.5943183619627</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
-        <v>447.8017392184325</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7216,10 +7216,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4230.423978142506</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C40" t="n">
-        <v>4061.487795214599</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>3911.371155802263</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3763.45806221987</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3616.56811472196</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>4860.854573014292</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>4860.854573014292</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>4860.854573014292</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>4860.854573014292</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>4632.865022116275</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y40" t="n">
-        <v>4412.072442972745</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,7 +7429,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7602,19 +7602,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>1341.503549752619</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>1113.513998854602</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y43" t="n">
-        <v>892.7214197110717</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="44">
@@ -7627,28 +7627,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514082</v>
@@ -7666,7 +7666,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207829</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3459.155393916676</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C46" t="n">
-        <v>3459.155393916676</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="D46" t="n">
-        <v>3459.155393916676</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>3459.155393916676</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4702.023706674222</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>4412.89506788778</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>4158.210579681893</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>3868.793409644933</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>3640.803858746915</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y46" t="n">
-        <v>3640.803858746915</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978322</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298287</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>29.47535963978135</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.409182577676</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.4091825776742</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>159.0121003135234</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928334</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208072</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928334</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504513</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>180.0237016735881</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>96.03744927814591</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61.3420956754254</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23466,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>79.90048931391999</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>61.34209567542479</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,16 +23898,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>75.18030907217967</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>49.45924789713997</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,19 +24177,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>59.69812105495913</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271324</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>44.27839330891823</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>23.17774625772572</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>44.27839330891744</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,19 +24891,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338635</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>209.9575686936376</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25365,10 +25365,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>228.5889167740533</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="38">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>51.71984429841024</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>10.65497486614629</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25602,22 +25602,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25842,13 +25842,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>130.6844047393606</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>103.3959458291059</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26076,7 +26076,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>64.30500338171964</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>947434.0422453427</v>
+        <v>947434.0422453424</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>947434.0422453427</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="G2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983655</v>
       </c>
       <c r="H2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983655</v>
       </c>
       <c r="I2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="J2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="K2" t="n">
         <v>449683.4186983652</v>
-      </c>
-      <c r="K2" t="n">
-        <v>449683.4186983651</v>
       </c>
       <c r="L2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="M2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="N2" t="n">
         <v>449683.4186983653</v>
-      </c>
-      <c r="N2" t="n">
-        <v>449683.4186983652</v>
       </c>
       <c r="O2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="P2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983654</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768966</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218262</v>
@@ -26432,25 +26432,25 @@
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="H4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="I4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="K4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="I4" t="n">
-        <v>29303.54555230234</v>
-      </c>
-      <c r="J4" t="n">
-        <v>29303.54555230234</v>
-      </c>
-      <c r="K4" t="n">
-        <v>29303.54555230234</v>
-      </c>
       <c r="L4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230233</v>
@@ -26472,40 +26472,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-375218.7169278172</v>
+        <v>-375218.7169278171</v>
       </c>
       <c r="C6" t="n">
-        <v>214749.1622867272</v>
+        <v>214749.1622867273</v>
       </c>
       <c r="D6" t="n">
         <v>214749.1622867273</v>
       </c>
       <c r="E6" t="n">
-        <v>-196767.4892795499</v>
+        <v>-197742.0805392719</v>
       </c>
       <c r="F6" t="n">
-        <v>328392.5471973462</v>
+        <v>327417.9559376246</v>
       </c>
       <c r="G6" t="n">
-        <v>328392.5471973462</v>
+        <v>327417.9559376248</v>
       </c>
       <c r="H6" t="n">
-        <v>328392.5471973463</v>
+        <v>327417.9559376248</v>
       </c>
       <c r="I6" t="n">
-        <v>328392.5471973462</v>
+        <v>327417.9559376246</v>
       </c>
       <c r="J6" t="n">
-        <v>151969.3280047533</v>
+        <v>150994.7367450318</v>
       </c>
       <c r="K6" t="n">
-        <v>328392.5471973462</v>
+        <v>327417.9559376247</v>
       </c>
       <c r="L6" t="n">
-        <v>328392.5471973462</v>
+        <v>327417.9559376246</v>
       </c>
       <c r="M6" t="n">
-        <v>193591.5319635092</v>
+        <v>192616.9407037873</v>
       </c>
       <c r="N6" t="n">
-        <v>328392.5471973463</v>
+        <v>327417.9559376247</v>
       </c>
       <c r="O6" t="n">
-        <v>328392.5471973464</v>
+        <v>327417.9559376247</v>
       </c>
       <c r="P6" t="n">
-        <v>328392.5471973463</v>
+        <v>327417.9559376248</v>
       </c>
     </row>
   </sheetData>
@@ -26737,43 +26737,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541001</v>
-      </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26792,25 +26792,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.926370499018</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.287272754555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>345.6709743725832</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>144.800557357096</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27554,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>11.62584915701513</v>
+        <v>78.23862435054525</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>339.5382092338684</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>15.58456930156811</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27785,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>13.90437704873312</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>81.14867215143154</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,13 +27830,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>303.7774505705566</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>303.0299525326459</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28025,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>11.99007165458424</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>243.2051448974512</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,31 +32876,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,31 +33113,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33183,40 +33183,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,10 +33256,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215733</v>
@@ -33268,7 +33268,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724845</v>
@@ -33277,10 +33277,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33292,7 +33292,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33356,7 +33356,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33368,10 +33368,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
         <v>0.08167695791351813</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958074</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>278.7330645958058</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.363702241108</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209231</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336986</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>309.5875389014627</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523318</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.691066710908</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>268.0367344586621</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299105</v>
@@ -36998,7 +36998,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>137.9476282330526</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1397238.477801476</v>
+        <v>1402177.740650508</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>152.1157524910533</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.130758887765257</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>56.72699744179297</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>142.9046269258104</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>235.6395982067212</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>153.4054252103178</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>208.2793294336578</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>20.89282023171125</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1189,10 +1189,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>138.3038958997686</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.72683757586874</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>43.31785343913981</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385038</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>18.94651169068109</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>139.153727875004</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>6.924765229694492</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,10 +1852,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F17" t="n">
-        <v>406.876045741713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>118.4898845065125</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>50.1630188544056</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,7 +2098,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274071</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>138.2226889286441</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>70.94777137203057</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467005</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>198.3698148006635</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274077</v>
@@ -2848,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>92.72868176957338</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>15.98360398438625</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.627084658457212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>109.7395205132413</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>118.4898845065121</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>173.8065142497632</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>45.21952718910648</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1275.883734065348</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="C2" t="n">
-        <v>1275.883734065348</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="D2" t="n">
-        <v>1275.883734065348</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="E2" t="n">
-        <v>890.0954814671036</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>479.109576677496</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>61.14576857568289</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>61.14576857568289</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>1190.010945960184</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4415,16 +4415,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>259.1560728187101</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>259.1560728187101</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D4" t="n">
-        <v>259.1560728187101</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E4" t="n">
-        <v>111.242979236317</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F4" t="n">
-        <v>111.242979236317</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G4" t="n">
-        <v>111.242979236317</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>111.242979236317</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4515,25 +4515,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>259.1560728187101</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>259.1560728187101</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>259.1560728187101</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>259.1560728187101</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2072.529454785695</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.566937845283</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2552.800983012353</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2334.166315984416</v>
       </c>
       <c r="U5" t="n">
-        <v>2459.129294849817</v>
+        <v>2080.404530622508</v>
       </c>
       <c r="V5" t="n">
-        <v>2459.129294849817</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="W5" t="n">
-        <v>2459.129294849817</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="X5" t="n">
-        <v>2459.129294849817</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y5" t="n">
-        <v>2459.129294849817</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4667,22 +4667,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785273</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D7" t="n">
-        <v>559.1928012785273</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>559.1928012785273</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>412.3028537806169</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4764,13 +4764,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>517.7458231623355</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>885.7444020895357</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C8" t="n">
-        <v>885.7444020895357</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>885.7444020895357</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>499.9561494912915</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>88.9702447016839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>75.04684064027479</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.483574129469</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.483574129469</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.483574129469</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y8" t="n">
-        <v>1272.344242153657</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M9" t="n">
         <v>1237.953133915166</v>
@@ -4901,7 +4901,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>559.1928012785277</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>409.0761618661919</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>261.1630682837988</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>114.2731207858884</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="11">
@@ -5038,22 +5038,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643324</v>
@@ -5062,10 +5062,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>485.4047026089406</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636253</v>
+        <v>732.1698305154048</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028589</v>
+        <v>263.2449295548438</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028589</v>
+        <v>263.2449295548438</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028589</v>
+        <v>263.2449295548438</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471194</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028589</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028589</v>
+        <v>444.8933943850835</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823788</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5302,28 +5302,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277036</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775513</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028589</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028589</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>1491.921558204676</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028589</v>
+        <v>1263.932007306658</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028589</v>
+        <v>1043.139428163128</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
         <v>904.3190116155888</v>
@@ -5512,13 +5512,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5530,37 +5530,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395484</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028589</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028589</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
         <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655742</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286137</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X19" t="n">
-        <v>437.6964226305963</v>
+        <v>615.0162575140621</v>
       </c>
       <c r="Y19" t="n">
-        <v>216.9038434870662</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
@@ -5773,31 +5773,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>570.0299571250964</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L21" t="n">
-        <v>816.7950850315606</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M21" t="n">
-        <v>1124.115218311522</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1453.977845975555</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>413.0432218861032</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581963</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581963</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581963</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241958</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1359.297392852202</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1359.297392852202</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>1070.16875406576</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V22" t="n">
-        <v>815.4842658598731</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W22" t="n">
-        <v>815.4842658598731</v>
+        <v>1172.567366824712</v>
       </c>
       <c r="X22" t="n">
-        <v>815.4842658598731</v>
+        <v>944.5778159266949</v>
       </c>
       <c r="Y22" t="n">
-        <v>594.6916867163429</v>
+        <v>723.7852367831648</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514085</v>
@@ -6010,31 +6010,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,16 +6056,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126483</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471194</v>
@@ -6180,19 +6180,19 @@
         <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609669</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>731.31772835508</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181194</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201021</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,10 +6214,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,10 +6226,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6241,13 +6241,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,13 +6293,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6308,19 +6308,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1098.622710169755</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>809.4940713833126</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>554.8095831774258</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>265.3924131404652</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6463,10 +6463,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6651,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1090.100879744681</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V31" t="n">
-        <v>835.416391538794</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>510.2366179610307</v>
       </c>
     </row>
     <row r="32">
@@ -6703,22 +6703,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>247.3337308726216</v>
+        <v>260.2520934878793</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>260.2520934878793</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>260.2520934878793</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
         <v>97.21709146028584</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>665.6859735286132</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>437.6964226305959</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y34" t="n">
-        <v>428.9821957028613</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,25 +6931,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>1388.068270039477</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>1133.38378183359</v>
       </c>
       <c r="W37" t="n">
-        <v>441.900558318119</v>
+        <v>843.9666117966292</v>
       </c>
       <c r="X37" t="n">
-        <v>213.9110074201016</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,40 +7165,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,25 +7396,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,13 +7423,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1323.354134952081</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>1034.225496165639</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>1034.225496165639</v>
       </c>
       <c r="W43" t="n">
-        <v>665.6859735286132</v>
+        <v>744.8083261286786</v>
       </c>
       <c r="X43" t="n">
-        <v>437.6964226305959</v>
+        <v>744.8083261286786</v>
       </c>
       <c r="Y43" t="n">
-        <v>216.9038434870658</v>
+        <v>744.8083261286786</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,10 +7666,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>73.53204524669945</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298287</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978135</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>288.4091825776742</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>159.0121003135234</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>127.4874509558881</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23466,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>82.39383318338525</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>279.5982331068965</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>61.34209567542479</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>175.5466365346315</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24177,22 +24177,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>59.69812105495913</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>215.5752269645604</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>29.89407122271324</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>23.17774625772572</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>87.10329841236391</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24891,10 +24891,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>130.4503586621829</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25128,7 +25128,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>209.9575686936376</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25365,10 +25365,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>176.497831885336</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>51.71984429841024</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>61.34209567542518</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25839,22 +25839,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>47.74104680862609</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26028,13 +26028,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>103.3959458291059</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453424</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453427</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>947434.0422453424</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="13">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
         <v>472099.017671963</v>
@@ -26322,40 +26322,40 @@
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="F2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="G2" t="n">
-        <v>449683.4186983655</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="H2" t="n">
-        <v>449683.4186983655</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="I2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="J2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="K2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="L2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="M2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="N2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="O2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="P2" t="n">
-        <v>449683.4186983654</v>
+        <v>449683.4186983652</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768966</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
+        <v>29303.54555230231</v>
+      </c>
+      <c r="J4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="J4" t="n">
-        <v>29303.54555230232</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
@@ -26453,7 +26453,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
@@ -26475,34 +26475,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-375218.7169278171</v>
+        <v>-375218.716927817</v>
       </c>
       <c r="C6" t="n">
         <v>214749.1622867273</v>
@@ -26530,40 +26530,40 @@
         <v>214749.1622867273</v>
       </c>
       <c r="E6" t="n">
-        <v>-197742.0805392719</v>
+        <v>-196864.9484055221</v>
       </c>
       <c r="F6" t="n">
-        <v>327417.9559376246</v>
+        <v>328295.0880713742</v>
       </c>
       <c r="G6" t="n">
-        <v>327417.9559376248</v>
+        <v>328295.088071374</v>
       </c>
       <c r="H6" t="n">
-        <v>327417.9559376248</v>
+        <v>328295.088071374</v>
       </c>
       <c r="I6" t="n">
-        <v>327417.9559376246</v>
+        <v>328295.088071374</v>
       </c>
       <c r="J6" t="n">
-        <v>150994.7367450318</v>
+        <v>151871.8688787813</v>
       </c>
       <c r="K6" t="n">
-        <v>327417.9559376247</v>
+        <v>328295.0880713741</v>
       </c>
       <c r="L6" t="n">
-        <v>327417.9559376246</v>
+        <v>328295.0880713742</v>
       </c>
       <c r="M6" t="n">
-        <v>192616.9407037873</v>
+        <v>193494.072837537</v>
       </c>
       <c r="N6" t="n">
-        <v>327417.9559376247</v>
+        <v>328295.0880713742</v>
       </c>
       <c r="O6" t="n">
-        <v>327417.9559376247</v>
+        <v>328295.0880713741</v>
       </c>
       <c r="P6" t="n">
-        <v>327417.9559376248</v>
+        <v>328295.088071374</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,22 +26795,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.287272754555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>229.8146175812084</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>144.800557357096</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>78.23862435054525</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>31.51108588316112</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>15.58456930156811</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>13.90437704873312</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>78.24366890293325</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>303.0299525326459</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,10 +27909,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>112.9202716085207</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>243.2051448974512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
         <v>34.18755300444946</v>
@@ -31773,13 +31773,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647497</v>
@@ -31794,7 +31794,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31849,7 +31849,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
         <v>464.5362854813463</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
         <v>45.03122946298631</v>
@@ -31922,10 +31922,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
         <v>234.725964217132</v>
@@ -31934,7 +31934,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,13 +31946,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32721,13 +32721,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647497</v>
@@ -32742,7 +32742,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32797,7 +32797,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813463</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
         <v>45.03122946298631</v>
@@ -32870,10 +32870,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
@@ -32882,7 +32882,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32894,13 +32894,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
@@ -35421,19 +35421,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>224.1074838346387</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560244</v>
@@ -35500,16 +35500,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056037</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958058</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875336986</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>309.5875389014627</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560244</v>
@@ -36214,10 +36214,10 @@
         <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209233</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36369,19 +36369,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
@@ -36448,16 +36448,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36524,7 +36524,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056037</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
